--- a/Magnetars/Presentation/figures/fig_ref.xlsx
+++ b/Magnetars/Presentation/figures/fig_ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fenton\Documents\GitHub\hcrd\AstroWorks\Magnetars\Presentation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAFE482-4B92-4E0A-9229-C8B3B6628A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4693D5FE-8B61-429B-BD6B-8350DF6FE202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FileName</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>https://photojournal.jpl.nasa.gov/figures/PIA23863.jpg</t>
+  </si>
+  <si>
+    <t>http://www.eso.org/public/images/eso1527a/</t>
+  </si>
+  <si>
+    <t>magnetar_sn_remnant.jpg</t>
+  </si>
+  <si>
+    <t>spatial.png</t>
+  </si>
+  <si>
+    <t>1703.00068.pdf</t>
   </si>
 </sst>
 </file>
@@ -371,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +413,22 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Magnetars/Presentation/figures/fig_ref.xlsx
+++ b/Magnetars/Presentation/figures/fig_ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fenton\Documents\GitHub\hcrd\AstroWorks\Magnetars\Presentation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4693D5FE-8B61-429B-BD6B-8350DF6FE202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B37AC8-F1F3-4E85-8A34-85B0438D99C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -435,6 +435,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{06A09134-34DC-41D2-BCAB-6D06594A1A08}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{377F8D84-47B5-4D9B-93B0-0A01A3BDB5C5}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{DA4DE61F-C56B-4DE9-9EF7-B7FF6D6DDBF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
